--- a/工作流/PrlZB_Stamp_用印申请流程设计.xlsx
+++ b/工作流/PrlZB_Stamp_用印申请流程设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="0" windowWidth="18150" windowHeight="12390" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="13536" yWindow="0" windowWidth="18156" windowHeight="12396" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="320">
   <si>
     <t>标题信息</t>
   </si>
@@ -356,6 +356,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>企业</t>
@@ -384,6 +385,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>流程实例</t>
@@ -608,6 +610,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>附件</t>
@@ -1312,6 +1315,30 @@
   </si>
   <si>
     <t>constraint PK_PrlZB_Stamp_App primary key(EntGid, Gid)</t>
+  </si>
+  <si>
+    <t>drop table PrlZB_Stamp;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table PrlZB_Stamp (</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraint PK_PrlZB_Stamp primary key(EntGid, Gid)</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop table WF_PrlZB_Stamp_Attach2;</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table WF_PrlZB_Stamp_Attach2 (</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraint PK_WF_PrlZB_Stamp_Attach2 primary key(EntGid, FlowGid, Gid)</t>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1446,6 +1473,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1459,11 +1487,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2163,6 +2193,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2171,27 +2222,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2224,9 +2254,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3752850</xdr:colOff>
+          <xdr:colOff>3756660</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2890,23 +2920,23 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="70"/>
-    <col min="2" max="2" width="13.875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="70" customWidth="1"/>
     <col min="3" max="3" width="53" style="64" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="70" customWidth="1"/>
     <col min="5" max="5" width="9" style="70"/>
-    <col min="6" max="6" width="12.25" style="71" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="71" customWidth="1"/>
     <col min="7" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="73" t="s">
         <v>1</v>
       </c>
@@ -2914,7 +2944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="73" t="s">
         <v>3</v>
       </c>
@@ -2922,7 +2952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="73" t="s">
         <v>5</v>
       </c>
@@ -2930,7 +2960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="73" t="s">
         <v>7</v>
       </c>
@@ -2938,7 +2968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="73" t="s">
         <v>9</v>
       </c>
@@ -2946,7 +2976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B10" s="72" t="s">
         <v>11</v>
       </c>
@@ -2955,7 +2985,7 @@
       <c r="E10" s="75"/>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="77" t="s">
         <v>12</v>
       </c>
@@ -2972,7 +3002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="78">
         <v>0.1</v>
       </c>
@@ -2987,7 +3017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="78">
         <v>0.2</v>
       </c>
@@ -2996,7 +3026,7 @@
       <c r="E13" s="81"/>
       <c r="F13" s="82"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="78">
         <v>0.3</v>
       </c>
@@ -3005,7 +3035,7 @@
       <c r="E14" s="81"/>
       <c r="F14" s="82"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="78">
         <v>0.4</v>
       </c>
@@ -3014,13 +3044,13 @@
       <c r="E15" s="81"/>
       <c r="F15" s="82"/>
     </row>
-    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B17" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="75"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="77" t="s">
         <v>20</v>
       </c>
@@ -3028,30 +3058,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="78">
         <v>1</v>
       </c>
       <c r="C19" s="81"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="78">
         <v>2</v>
       </c>
       <c r="C20" s="81"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="78">
         <v>3</v>
       </c>
       <c r="C21" s="81"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="72" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="77" t="s">
         <v>20</v>
       </c>
@@ -3059,7 +3089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="78">
         <v>1</v>
       </c>
@@ -3067,7 +3097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="78">
         <v>2</v>
       </c>
@@ -3075,7 +3105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="78">
         <v>3</v>
       </c>
@@ -3083,7 +3113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="78">
         <v>4</v>
       </c>
@@ -3091,7 +3121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="78">
         <v>5</v>
       </c>
@@ -3099,7 +3129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="78">
         <v>6</v>
       </c>
@@ -3107,7 +3137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="78">
         <v>7</v>
       </c>
@@ -3141,90 +3171,90 @@
       <selection activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="55"/>
-    <col min="2" max="2" width="12.625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="85.5" style="55" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" style="55" customWidth="1"/>
     <col min="4" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="64"/>
       <c r="F2" s="71"/>
     </row>
-    <row r="3" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="95" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="96"/>
       <c r="F3" s="71"/>
     </row>
-    <row r="4" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
       <c r="F4" s="71"/>
     </row>
-    <row r="5" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="97"/>
       <c r="C5" s="98"/>
       <c r="F5" s="71"/>
     </row>
-    <row r="6" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="97"/>
       <c r="C6" s="98"/>
       <c r="F6" s="71"/>
     </row>
-    <row r="7" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="97"/>
       <c r="C7" s="98"/>
       <c r="F7" s="71"/>
     </row>
-    <row r="8" spans="2:6" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" s="70" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="99"/>
       <c r="C8" s="100"/>
       <c r="F8" s="71"/>
     </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="63" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="64"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="67">
         <v>1</v>
       </c>
       <c r="C11" s="68"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="67">
         <v>2</v>
       </c>
       <c r="C12" s="68"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="67">
         <v>3</v>
       </c>
       <c r="C13" s="68"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="67">
         <v>4</v>
       </c>
       <c r="C14" s="68"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="67">
         <v>5</v>
       </c>
       <c r="C15" s="68"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="67">
         <v>6</v>
       </c>
@@ -3247,22 +3277,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="55"/>
-    <col min="2" max="2" width="12.125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="55" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="55" customWidth="1"/>
     <col min="5" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B2" s="63" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="64"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="65" t="s">
         <v>20</v>
       </c>
@@ -3273,35 +3303,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="67">
         <v>1</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="67">
         <v>2</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="69"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="67">
         <v>3</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="69"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="67">
         <v>4</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="69"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="67">
         <v>5</v>
       </c>
@@ -3324,16 +3354,16 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="55" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="55" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="55" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="55" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="55" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="55" customWidth="1"/>
     <col min="4" max="4" width="17" style="55" customWidth="1"/>
     <col min="5" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>37</v>
       </c>
@@ -3341,7 +3371,7 @@
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>38</v>
       </c>
@@ -3355,7 +3385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>42</v>
       </c>
@@ -3369,7 +3399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>46</v>
       </c>
@@ -3381,7 +3411,7 @@
       </c>
       <c r="D4" s="62"/>
     </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>49</v>
       </c>
@@ -3395,7 +3425,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>51</v>
       </c>
@@ -3409,7 +3439,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>221</v>
       </c>
@@ -3421,7 +3451,7 @@
       </c>
       <c r="D7" s="61"/>
     </row>
-    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>222</v>
       </c>
@@ -3433,7 +3463,7 @@
       </c>
       <c r="D8" s="61"/>
     </row>
-    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>53</v>
       </c>
@@ -3445,7 +3475,7 @@
       </c>
       <c r="D9" s="61"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
         <v>55</v>
       </c>
@@ -3472,9 +3502,9 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3752850</xdr:colOff>
+                <xdr:colOff>3756660</xdr:colOff>
                 <xdr:row>42</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>137160</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3490,23 +3520,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="42" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="42" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
         <v>56</v>
       </c>
@@ -3514,7 +3544,7 @@
       <c r="E1" s="42"/>
       <c r="F1" s="44"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>300</v>
       </c>
@@ -3526,7 +3556,7 @@
       </c>
       <c r="F2" s="45"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>301</v>
       </c>
@@ -3536,7 +3566,7 @@
       <c r="E3" s="47"/>
       <c r="F3" s="45"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
         <v>58</v>
       </c>
@@ -3551,7 +3581,7 @@
       </c>
       <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
         <v>62</v>
       </c>
@@ -3566,7 +3596,7 @@
       </c>
       <c r="F5" s="48"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
@@ -3581,7 +3611,7 @@
       </c>
       <c r="F6" s="48"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>66</v>
       </c>
@@ -3596,7 +3626,7 @@
       </c>
       <c r="F7" s="48"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
         <v>69</v>
       </c>
@@ -3609,7 +3639,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="48"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="42" t="s">
         <v>72</v>
       </c>
@@ -3622,7 +3652,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="48"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="84" t="s">
         <v>73</v>
       </c>
@@ -3630,7 +3660,7 @@
       <c r="E10" s="44"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="42" t="s">
         <v>74</v>
       </c>
@@ -3645,7 +3675,7 @@
       </c>
       <c r="F11" s="49"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="84" t="s">
         <v>73</v>
       </c>
@@ -3653,7 +3683,7 @@
       <c r="E12" s="42"/>
       <c r="F12" s="44"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
         <v>76</v>
       </c>
@@ -3668,7 +3698,7 @@
       </c>
       <c r="F13" s="44"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
         <v>78</v>
       </c>
@@ -3681,7 +3711,7 @@
       <c r="E14" s="42"/>
       <c r="F14" s="44"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="42" t="s">
         <v>80</v>
       </c>
@@ -3694,7 +3724,7 @@
       <c r="E15" s="42"/>
       <c r="F15" s="44"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
         <v>81</v>
       </c>
@@ -3709,7 +3739,7 @@
       </c>
       <c r="F16" s="44"/>
     </row>
-    <row r="17" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="42" t="s">
         <v>83</v>
       </c>
@@ -3722,7 +3752,7 @@
       <c r="E17" s="42"/>
       <c r="F17" s="44"/>
     </row>
-    <row r="18" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="42" t="s">
         <v>84</v>
       </c>
@@ -3735,7 +3765,7 @@
       <c r="E18" s="48"/>
       <c r="F18" s="44"/>
     </row>
-    <row r="19" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="84" t="s">
         <v>73</v>
       </c>
@@ -3743,7 +3773,7 @@
       <c r="E19" s="42"/>
       <c r="F19" s="44"/>
     </row>
-    <row r="20" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
         <v>85</v>
       </c>
@@ -3758,7 +3788,7 @@
       </c>
       <c r="F20" s="44"/>
     </row>
-    <row r="21" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
         <v>294</v>
       </c>
@@ -3773,7 +3803,7 @@
       </c>
       <c r="F21" s="44"/>
     </row>
-    <row r="22" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="42" t="s">
         <v>254</v>
       </c>
@@ -3788,7 +3818,7 @@
       </c>
       <c r="F22" s="44"/>
     </row>
-    <row r="23" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
         <v>252</v>
       </c>
@@ -3800,7 +3830,7 @@
       </c>
       <c r="F23" s="44"/>
     </row>
-    <row r="24" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="42" t="s">
         <v>253</v>
       </c>
@@ -3813,7 +3843,7 @@
       <c r="E24" s="42"/>
       <c r="F24" s="44"/>
     </row>
-    <row r="25" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="84" t="s">
         <v>73</v>
       </c>
@@ -3822,7 +3852,7 @@
       <c r="E25" s="42"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="42" t="s">
         <v>298</v>
       </c>
@@ -3837,7 +3867,7 @@
       </c>
       <c r="F26" s="44"/>
     </row>
-    <row r="27" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="42" t="s">
         <v>256</v>
       </c>
@@ -3852,7 +3882,7 @@
       </c>
       <c r="F27" s="44"/>
     </row>
-    <row r="28" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="42" t="s">
         <v>297</v>
       </c>
@@ -3867,7 +3897,7 @@
       </c>
       <c r="F28" s="44"/>
     </row>
-    <row r="29" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="42" t="s">
         <v>260</v>
       </c>
@@ -3882,7 +3912,7 @@
       </c>
       <c r="F29" s="44"/>
     </row>
-    <row r="30" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="42" t="s">
         <v>261</v>
       </c>
@@ -3895,7 +3925,7 @@
       <c r="E30" s="48"/>
       <c r="F30" s="44"/>
     </row>
-    <row r="31" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="84" t="s">
         <v>263</v>
       </c>
@@ -3904,7 +3934,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="44"/>
     </row>
-    <row r="32" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="42" t="s">
         <v>264</v>
       </c>
@@ -3919,7 +3949,7 @@
       </c>
       <c r="F32" s="44"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="42" t="s">
         <v>265</v>
       </c>
@@ -3934,7 +3964,7 @@
       </c>
       <c r="F33" s="44"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
         <v>266</v>
       </c>
@@ -3949,7 +3979,7 @@
       </c>
       <c r="F34" s="44"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="42" t="s">
         <v>267</v>
       </c>
@@ -3964,7 +3994,7 @@
       </c>
       <c r="F35" s="44"/>
     </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="42" t="s">
         <v>268</v>
       </c>
@@ -3979,7 +4009,7 @@
       </c>
       <c r="F36" s="44"/>
     </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="84" t="s">
         <v>269</v>
       </c>
@@ -3988,7 +4018,7 @@
       <c r="E37" s="42"/>
       <c r="F37" s="44"/>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="42" t="s">
         <v>270</v>
       </c>
@@ -4003,7 +4033,7 @@
       </c>
       <c r="F38" s="44"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="42" t="s">
         <v>271</v>
       </c>
@@ -4018,7 +4048,7 @@
       </c>
       <c r="F39" s="44"/>
     </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B40" s="42" t="s">
         <v>272</v>
       </c>
@@ -4033,7 +4063,7 @@
       </c>
       <c r="F40" s="44"/>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="42" t="s">
         <v>273</v>
       </c>
@@ -4048,7 +4078,7 @@
       </c>
       <c r="F41" s="44"/>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>274</v>
       </c>
@@ -4063,7 +4093,7 @@
       </c>
       <c r="F42" s="44"/>
     </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="42" t="s">
         <v>275</v>
       </c>
@@ -4076,7 +4106,7 @@
       <c r="E43" s="48"/>
       <c r="F43" s="44"/>
     </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="42" t="s">
         <v>276</v>
       </c>
@@ -4091,7 +4121,7 @@
       </c>
       <c r="F44" s="44"/>
     </row>
-    <row r="45" spans="1:6" s="41" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="B45" s="42" t="s">
         <v>89</v>
@@ -4107,7 +4137,7 @@
       </c>
       <c r="F45" s="44"/>
     </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="42" t="s">
         <v>302</v>
       </c>
@@ -4115,7 +4145,7 @@
       <c r="E46" s="42"/>
       <c r="F46" s="44"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="50"/>
       <c r="B47" s="51" t="s">
         <v>303</v>
@@ -4125,7 +4155,7 @@
       <c r="E47" s="53"/>
       <c r="F47" s="50"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="42" t="s">
         <v>93</v>
       </c>
@@ -4133,7 +4163,7 @@
       <c r="E48" s="42"/>
       <c r="F48" s="44"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>304</v>
       </c>
@@ -4141,7 +4171,7 @@
       <c r="E49" s="42"/>
       <c r="F49" s="44"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>305</v>
       </c>
@@ -4153,7 +4183,7 @@
       </c>
       <c r="F51" s="45"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
         <v>306</v>
       </c>
@@ -4163,7 +4193,7 @@
       <c r="E52" s="47"/>
       <c r="F52" s="45"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="42" t="s">
         <v>58</v>
       </c>
@@ -4178,7 +4208,7 @@
       </c>
       <c r="F53" s="44"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="42" t="s">
         <v>62</v>
       </c>
@@ -4191,7 +4221,7 @@
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
     </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B55" s="42" t="s">
         <v>64</v>
       </c>
@@ -4206,7 +4236,7 @@
       </c>
       <c r="F55" s="44"/>
     </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="42" t="s">
         <v>95</v>
       </c>
@@ -4219,7 +4249,7 @@
       <c r="E56" s="48"/>
       <c r="F56" s="44"/>
     </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="84" t="s">
         <v>73</v>
       </c>
@@ -4227,7 +4257,7 @@
       <c r="E57" s="42"/>
       <c r="F57" s="44"/>
     </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B58" s="42" t="s">
         <v>99</v>
       </c>
@@ -4242,7 +4272,7 @@
       </c>
       <c r="F58" s="44"/>
     </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B59" s="42" t="s">
         <v>101</v>
       </c>
@@ -4255,7 +4285,7 @@
       <c r="E59" s="42"/>
       <c r="F59" s="44"/>
     </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B60" s="42" t="s">
         <v>102</v>
       </c>
@@ -4268,7 +4298,7 @@
       <c r="E60" s="42"/>
       <c r="F60" s="44"/>
     </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B61" s="42" t="s">
         <v>103</v>
       </c>
@@ -4281,7 +4311,7 @@
       <c r="E61" s="42"/>
       <c r="F61" s="44"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" s="42" t="s">
         <v>245</v>
       </c>
@@ -4296,7 +4326,7 @@
       </c>
       <c r="F62" s="54"/>
     </row>
-    <row r="63" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="B63" s="42" t="s">
         <v>104</v>
       </c>
@@ -4313,7 +4343,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B64" s="84" t="s">
         <v>73</v>
       </c>
@@ -4321,7 +4351,7 @@
       <c r="E64" s="42"/>
       <c r="F64" s="44"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B65" s="42" t="s">
         <v>107</v>
       </c>
@@ -4336,7 +4366,7 @@
       </c>
       <c r="F65" s="44"/>
     </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B66" s="42" t="s">
         <v>109</v>
       </c>
@@ -4351,7 +4381,7 @@
       </c>
       <c r="F66" s="44"/>
     </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B67" s="42" t="s">
         <v>112</v>
       </c>
@@ -4366,7 +4396,7 @@
       </c>
       <c r="F67" s="44"/>
     </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B68" s="42" t="s">
         <v>307</v>
       </c>
@@ -4374,7 +4404,7 @@
       <c r="E68" s="42"/>
       <c r="F68" s="44"/>
     </row>
-    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B69" s="42" t="s">
         <v>93</v>
       </c>
@@ -4382,7 +4412,7 @@
       <c r="E69" s="42"/>
       <c r="F69" s="44"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="45" t="s">
         <v>308</v>
       </c>
@@ -4394,7 +4424,7 @@
       </c>
       <c r="F72" s="45"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="45" t="s">
         <v>309</v>
       </c>
@@ -4404,7 +4434,7 @@
       <c r="E73" s="47"/>
       <c r="F73" s="45"/>
     </row>
-    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B74" s="42" t="s">
         <v>58</v>
       </c>
@@ -4419,7 +4449,7 @@
       </c>
       <c r="F74" s="44"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
         <v>62</v>
       </c>
@@ -4432,7 +4462,7 @@
       <c r="E75" s="48"/>
       <c r="F75" s="48"/>
     </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
         <v>64</v>
       </c>
@@ -4447,7 +4477,7 @@
       </c>
       <c r="F76" s="44"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
         <v>217</v>
       </c>
@@ -4462,7 +4492,7 @@
       </c>
       <c r="F77" s="44"/>
     </row>
-    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B78" s="42" t="s">
         <v>73</v>
       </c>
@@ -4470,7 +4500,7 @@
       <c r="E78" s="42"/>
       <c r="F78" s="44"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B79" s="42" t="s">
         <v>218</v>
       </c>
@@ -4485,7 +4515,7 @@
       </c>
       <c r="F79" s="44"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B80" s="42" t="s">
         <v>219</v>
       </c>
@@ -4500,7 +4530,7 @@
       </c>
       <c r="F80" s="44"/>
     </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B81" s="42" t="s">
         <v>220</v>
       </c>
@@ -4515,7 +4545,7 @@
       </c>
       <c r="F81" s="44"/>
     </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B82" s="42" t="s">
         <v>310</v>
       </c>
@@ -4523,7 +4553,7 @@
       <c r="E82" s="42"/>
       <c r="F82" s="44"/>
     </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B83" s="42" t="s">
         <v>93</v>
       </c>
@@ -4531,231 +4561,604 @@
       <c r="E83" s="42"/>
       <c r="F83" s="44"/>
     </row>
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D84" s="43"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="44"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F85" s="45"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="45"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B87" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="44"/>
+    </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="B88" s="86"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="87"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="85" t="s">
-        <v>312</v>
-      </c>
-      <c r="B89" s="86"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="86"/>
-      <c r="E89" s="88" t="s">
+      <c r="B88" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B89" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="44"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B90" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E90" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="44"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B91" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="43"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="44"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B92" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92" s="44"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B93" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="44"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B94" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="F94" s="44"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B95" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="D95" s="43"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="44"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B96" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" s="43"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="44"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B98" s="86"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="87"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="85" t="s">
+        <v>315</v>
+      </c>
+      <c r="B99" s="86"/>
+      <c r="C99" s="86"/>
+      <c r="D99" s="86"/>
+      <c r="E99" s="88" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="86"/>
-      <c r="B90" s="86" t="s">
-        <v>230</v>
-      </c>
-      <c r="C90" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D90" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" s="89" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="86"/>
-      <c r="B91" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="E91" s="89" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="86"/>
-      <c r="B92" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E92" s="89" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="86"/>
-      <c r="B93" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D93" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="E93" s="89" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="86"/>
-      <c r="B94" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94" s="86"/>
-      <c r="D94" s="86"/>
-      <c r="E94" s="91"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="86"/>
-      <c r="B95" s="92" t="s">
-        <v>242</v>
-      </c>
-      <c r="C95" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="D95" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E95" s="93" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="86"/>
-      <c r="B96" s="92" t="s">
-        <v>247</v>
-      </c>
-      <c r="C96" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E96" s="93" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="86"/>
-      <c r="B97" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="C97" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E97" s="93" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="86"/>
-      <c r="B98" s="92" t="s">
-        <v>250</v>
-      </c>
-      <c r="C98" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E98" s="92"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="86"/>
-      <c r="B99" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="C99" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E99" s="93"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="86"/>
       <c r="B100" s="86" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C100" s="86" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="D100" s="86" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E100" s="89" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="86"/>
       <c r="B101" s="86" t="s">
-        <v>238</v>
+        <v>95</v>
       </c>
       <c r="C101" s="86" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="D101" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="E101" s="89"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E101" s="89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="86"/>
       <c r="B102" s="86" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="C102" s="86" t="s">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="D102" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="E102" s="89"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="E102" s="89" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="86"/>
       <c r="B103" s="86" t="s">
-        <v>313</v>
-      </c>
-      <c r="C103" s="86"/>
-      <c r="D103" s="86"/>
-      <c r="E103" s="91"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="C103" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" s="89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="86"/>
-      <c r="B104" s="86" t="s">
-        <v>93</v>
+      <c r="B104" s="90" t="s">
+        <v>73</v>
       </c>
       <c r="C104" s="86"/>
       <c r="D104" s="86"/>
       <c r="E104" s="91"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="94"/>
-      <c r="B105" s="94"/>
-      <c r="C105" s="94"/>
-      <c r="D105" s="94"/>
-      <c r="E105" s="94"/>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="86"/>
+      <c r="B105" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="93" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="86"/>
+      <c r="B106" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106" s="93" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="86"/>
+      <c r="B107" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E107" s="93" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="86"/>
+      <c r="B108" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="C108" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" s="92"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="86"/>
+      <c r="B109" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="C109" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109" s="93"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="86"/>
+      <c r="B110" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110" s="89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="86"/>
+      <c r="B111" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111" s="89"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="86"/>
+      <c r="B112" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="C112" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E112" s="89"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="86"/>
+      <c r="B113" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="C113" s="86"/>
+      <c r="D113" s="86"/>
+      <c r="E113" s="91"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="86"/>
+      <c r="B114" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="86"/>
+      <c r="D114" s="86"/>
+      <c r="E114" s="91"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="94"/>
+      <c r="B115" s="94"/>
+      <c r="C115" s="94"/>
+      <c r="D115" s="94"/>
+      <c r="E115" s="94"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="B116" s="86"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="86"/>
+      <c r="E116" s="87"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="B117" s="86"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="86"/>
+      <c r="E117" s="88" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="86"/>
+      <c r="B118" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" s="89" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="86"/>
+      <c r="B119" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E119" s="89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="86"/>
+      <c r="B120" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" s="89" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="86"/>
+      <c r="B121" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E121" s="89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="86"/>
+      <c r="B122" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C122" s="86"/>
+      <c r="D122" s="86"/>
+      <c r="E122" s="91"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="86"/>
+      <c r="B123" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C123" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E123" s="93" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="86"/>
+      <c r="B124" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E124" s="93" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="86"/>
+      <c r="B125" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D125" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E125" s="93" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="86"/>
+      <c r="B126" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E126" s="92"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="86"/>
+      <c r="B127" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E127" s="93"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="86"/>
+      <c r="B128" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C128" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="D128" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E128" s="89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="86"/>
+      <c r="B129" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="C129" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D129" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E129" s="89"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="86"/>
+      <c r="B130" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="D130" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130" s="89"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="86"/>
+      <c r="B131" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="C131" s="86"/>
+      <c r="D131" s="86"/>
+      <c r="E131" s="91"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="86"/>
+      <c r="B132" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C132" s="86"/>
+      <c r="D132" s="86"/>
+      <c r="E132" s="91"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4773,28 +5176,28 @@
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="14" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="14" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="14" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="14" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="14" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="14" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="14" customWidth="1"/>
     <col min="16" max="17" width="7" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>120</v>
       </c>
@@ -4808,7 +5211,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -4835,7 +5238,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>128</v>
       </c>
@@ -4843,7 +5246,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>123</v>
       </c>
@@ -4853,19 +5256,19 @@
       <c r="H4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="110" t="s">
+      <c r="J4" s="101"/>
+      <c r="K4" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>133</v>
       </c>
@@ -4875,17 +5278,17 @@
       <c r="H5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="106" t="s">
+      <c r="I5" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J5" s="101"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
         <v>137</v>
@@ -4893,17 +5296,17 @@
       <c r="H6" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="106" t="s">
+      <c r="I6" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J6" s="101"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>140</v>
       </c>
@@ -4911,7 +5314,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
         <v>137</v>
@@ -4922,7 +5325,7 @@
       <c r="N8"/>
       <c r="O8" s="33"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>142</v>
       </c>
@@ -4932,113 +5335,113 @@
       <c r="H9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="107" t="s">
+      <c r="I9" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="109" t="s">
+      <c r="M9" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>146</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="101" t="s">
+      <c r="H10" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="102" t="s">
+      <c r="I10" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>149</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="101" t="s">
+      <c r="H13" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H14" s="101"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H15" s="101"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H14" s="108"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H15" s="108"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
       <c r="K15" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>156</v>
       </c>
@@ -5047,7 +5450,7 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>122</v>
       </c>
@@ -5061,7 +5464,7 @@
       <c r="N17"/>
       <c r="O17" s="33"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>128</v>
       </c>
@@ -5093,7 +5496,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>166</v>
       </c>
@@ -5125,7 +5528,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
         <v>171</v>
@@ -5155,7 +5558,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
         <v>173</v>
@@ -5185,13 +5588,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>176</v>
       </c>
@@ -5204,7 +5607,7 @@
       <c r="N23"/>
       <c r="O23" s="33"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>179</v>
       </c>
@@ -5221,14 +5624,14 @@
       <c r="K24" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="L24" s="104" t="s">
+      <c r="L24" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>182</v>
       </c>
@@ -5247,14 +5650,14 @@
       <c r="K25" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L25" s="106" t="s">
+      <c r="L25" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
         <v>185</v>
@@ -5271,14 +5674,14 @@
       <c r="K26" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L26" s="106" t="s">
+      <c r="L26" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-    </row>
-    <row r="28" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+    </row>
+    <row r="28" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="H28" s="20" t="s">
         <v>186</v>
       </c>
@@ -5289,7 +5692,7 @@
       <c r="U28"/>
       <c r="V28"/>
     </row>
-    <row r="29" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>156</v>
       </c>
@@ -5300,25 +5703,25 @@
       <c r="H29" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="107" t="s">
+      <c r="I29" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
       <c r="L29" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="107" t="s">
+      <c r="M29" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
     </row>
-    <row r="30" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>122</v>
       </c>
@@ -5349,7 +5752,7 @@
       <c r="U30"/>
       <c r="V30"/>
     </row>
-    <row r="31" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>128</v>
       </c>
@@ -5361,7 +5764,7 @@
       <c r="U31"/>
       <c r="V31"/>
     </row>
-    <row r="32" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>191</v>
       </c>
@@ -5374,181 +5777,181 @@
       <c r="U32"/>
       <c r="V32"/>
     </row>
-    <row r="33" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
     </row>
-    <row r="34" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S34"/>
       <c r="T34"/>
       <c r="U34"/>
       <c r="V34"/>
     </row>
-    <row r="35" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S35"/>
       <c r="T35"/>
       <c r="U35"/>
       <c r="V35"/>
     </row>
-    <row r="36" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
       <c r="V36"/>
     </row>
-    <row r="37" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
     </row>
-    <row r="38" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
     </row>
-    <row r="39" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S39"/>
       <c r="T39"/>
       <c r="U39"/>
       <c r="V39"/>
     </row>
-    <row r="40" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S40"/>
       <c r="T40"/>
       <c r="U40"/>
       <c r="V40"/>
     </row>
-    <row r="41" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41"/>
       <c r="V41"/>
     </row>
-    <row r="42" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S42"/>
       <c r="T42"/>
       <c r="U42"/>
       <c r="V42"/>
     </row>
-    <row r="43" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S43"/>
       <c r="T43"/>
       <c r="U43"/>
       <c r="V43"/>
     </row>
-    <row r="44" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S44"/>
       <c r="T44"/>
       <c r="U44"/>
       <c r="V44"/>
     </row>
-    <row r="45" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45"/>
       <c r="V45"/>
     </row>
-    <row r="46" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S46"/>
       <c r="T46"/>
       <c r="U46"/>
       <c r="V46"/>
     </row>
-    <row r="47" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S47"/>
       <c r="T47"/>
       <c r="U47"/>
       <c r="V47"/>
     </row>
-    <row r="48" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S48"/>
       <c r="T48"/>
       <c r="U48"/>
       <c r="V48"/>
     </row>
-    <row r="49" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49"/>
       <c r="V49"/>
     </row>
-    <row r="50" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S50"/>
       <c r="T50"/>
       <c r="U50"/>
       <c r="V50"/>
     </row>
-    <row r="51" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S51"/>
       <c r="T51"/>
       <c r="U51"/>
       <c r="V51"/>
     </row>
-    <row r="52" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52"/>
       <c r="V52"/>
     </row>
-    <row r="53" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53"/>
       <c r="V53"/>
     </row>
-    <row r="54" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S54"/>
       <c r="T54"/>
       <c r="U54"/>
       <c r="V54"/>
     </row>
-    <row r="55" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S55"/>
       <c r="T55"/>
       <c r="U55"/>
       <c r="V55"/>
     </row>
-    <row r="56" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S56"/>
       <c r="T56"/>
       <c r="U56"/>
       <c r="V56"/>
     </row>
-    <row r="57" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S57"/>
       <c r="T57"/>
       <c r="U57"/>
       <c r="V57"/>
     </row>
-    <row r="58" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S58"/>
       <c r="T58"/>
       <c r="U58"/>
       <c r="V58"/>
     </row>
-    <row r="59" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S59"/>
       <c r="T59"/>
       <c r="U59"/>
       <c r="V59"/>
     </row>
-    <row r="60" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S60"/>
       <c r="T60"/>
       <c r="U60"/>
       <c r="V60"/>
     </row>
-    <row r="61" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S61"/>
       <c r="T61"/>
       <c r="U61"/>
       <c r="V61"/>
     </row>
-    <row r="62" spans="19:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="19:22" ht="14.4" x14ac:dyDescent="0.25">
       <c r="S62"/>
       <c r="T62"/>
       <c r="U62"/>
@@ -5556,23 +5959,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I10:O12"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="L13:O15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="K4:O6"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I10:O12"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="L13:O15"/>
-    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5589,19 +5992,19 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="1" customWidth="1"/>
     <col min="8" max="16" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>156</v>
       </c>
@@ -5625,7 +6028,7 @@
       <c r="O1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -5644,7 +6047,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>128</v>
       </c>
@@ -5662,7 +6065,7 @@
       <c r="O3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>123</v>
       </c>
@@ -5680,7 +6083,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>194</v>
       </c>
@@ -5698,7 +6101,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>196</v>
       </c>
@@ -5706,7 +6109,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
         <v>198</v>
@@ -5722,7 +6125,7 @@
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="21.6" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>199</v>
       </c>
@@ -5740,7 +6143,7 @@
       <c r="O8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="21.6" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>200</v>
       </c>
@@ -5758,7 +6161,7 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -5770,7 +6173,7 @@
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
@@ -5789,7 +6192,7 @@
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>122</v>
       </c>
@@ -5808,7 +6211,7 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>128</v>
       </c>
@@ -5826,7 +6229,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>166</v>
       </c>
@@ -5844,7 +6247,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
         <v>202</v>
@@ -5860,7 +6263,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
         <v>203</v>
@@ -5876,7 +6279,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>173</v>
@@ -5892,7 +6295,7 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>176</v>
       </c>
@@ -5910,7 +6313,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>179</v>
       </c>
@@ -5926,7 +6329,7 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>205</v>
       </c>
@@ -5944,7 +6347,7 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="F21" s="1"/>
@@ -5975,19 +6378,19 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="1" customWidth="1"/>
     <col min="8" max="16" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>156</v>
       </c>
@@ -6001,7 +6404,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -6012,7 +6415,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
         <v>128</v>
@@ -6023,7 +6426,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="13" t="s">
         <v>123</v>
@@ -6034,7 +6437,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
         <v>209</v>
@@ -6045,7 +6448,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>211</v>
       </c>
@@ -6053,7 +6456,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" customFormat="1" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
         <v>199</v>
@@ -6065,7 +6468,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" customFormat="1" ht="21.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>200</v>
@@ -6077,11 +6480,11 @@
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -6092,7 +6495,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>122</v>
       </c>
@@ -6103,7 +6506,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="9" t="s">
         <v>128</v>
@@ -6114,7 +6517,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
         <v>166</v>
@@ -6125,7 +6528,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12" t="s">
@@ -6134,7 +6537,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -6144,7 +6547,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
@@ -6154,7 +6557,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
         <v>176</v>
@@ -6166,7 +6569,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="13" t="s">
         <v>179</v>
@@ -6175,7 +6578,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="13" t="s">
         <v>205</v>
@@ -6187,7 +6590,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -6195,7 +6598,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6220,19 +6623,19 @@
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" style="1" customWidth="1"/>
     <col min="8" max="16" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>156</v>
       </c>
@@ -6256,7 +6659,7 @@
       <c r="O1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -6275,7 +6678,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>128</v>
       </c>
@@ -6293,7 +6696,7 @@
       <c r="O3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>166</v>
       </c>
@@ -6311,7 +6714,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>123</v>
       </c>
@@ -6329,7 +6732,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>216</v>
       </c>
@@ -6337,7 +6740,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>142</v>
       </c>
@@ -6355,7 +6758,7 @@
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>146</v>
       </c>
@@ -6373,7 +6776,7 @@
       <c r="O8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -6385,7 +6788,7 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -6397,7 +6800,7 @@
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -6409,7 +6812,7 @@
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -6421,7 +6824,7 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -6433,7 +6836,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -6445,7 +6848,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -6457,7 +6860,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -6469,7 +6872,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -6481,7 +6884,7 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
       <c r="H18"/>
       <c r="I18"/>
@@ -6493,7 +6896,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F19" s="1"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -6505,7 +6908,7 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -6517,7 +6920,7 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
       <c r="H21"/>
       <c r="I21"/>
